--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelsey\Documents\Employment\01 - MoH SWS\Data\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelsey\Documents\Employment\01 - MoH SWS\Data\Programming\SWS_BWA_Correlation_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3D5A8-94B0-43FA-8B60-CCFAA1828E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53449655-FD8D-47CC-91A9-6353870DE8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98381074-ED3F-41BD-B87D-F4C15C5922EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98381074-ED3F-41BD-B87D-F4C15C5922EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Database_draft" sheetId="1" r:id="rId1"/>
@@ -640,53 +640,53 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.88671875" customWidth="1"/>
-    <col min="34" max="34" width="10.5546875" customWidth="1"/>
-    <col min="35" max="35" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -2289,8 +2289,32 @@
       <c r="AD14" s="5">
         <v>2</v>
       </c>
+      <c r="AE14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -2381,8 +2405,32 @@
       <c r="AD15" s="5">
         <v>2</v>
       </c>
+      <c r="AE15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>1996</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -2473,8 +2521,32 @@
       <c r="AD16" s="5">
         <v>2</v>
       </c>
+      <c r="AE16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
@@ -2565,8 +2637,32 @@
       <c r="AD17" s="5">
         <v>3</v>
       </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2657,8 +2753,32 @@
       <c r="AD18" s="5">
         <v>2</v>
       </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -2749,8 +2869,32 @@
       <c r="AD19" s="5">
         <v>2</v>
       </c>
+      <c r="AE19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>1998</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2841,8 +2985,32 @@
       <c r="AD20" s="5">
         <v>2</v>
       </c>
+      <c r="AE20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2933,8 +3101,32 @@
       <c r="AD21" s="5">
         <v>2</v>
       </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3025,8 +3217,32 @@
       <c r="AD22" s="5">
         <v>2</v>
       </c>
+      <c r="AE22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -3117,8 +3333,32 @@
       <c r="AD23" s="5">
         <v>2</v>
       </c>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>2017</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -3209,8 +3449,32 @@
       <c r="AD24" s="5">
         <v>2</v>
       </c>
+      <c r="AE24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -3301,8 +3565,32 @@
       <c r="AD25" s="5">
         <v>2</v>
       </c>
+      <c r="AE25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
@@ -3393,8 +3681,32 @@
       <c r="AD26" s="5">
         <v>2</v>
       </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -3485,8 +3797,32 @@
       <c r="AD27" s="5">
         <v>2</v>
       </c>
+      <c r="AE27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>1987</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -3577,8 +3913,32 @@
       <c r="AD28" s="5">
         <v>4</v>
       </c>
+      <c r="AE28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>2016</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -3669,8 +4029,32 @@
       <c r="AD29" s="5">
         <v>4</v>
       </c>
+      <c r="AE29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -3761,8 +4145,32 @@
       <c r="AD30" s="5">
         <v>4</v>
       </c>
+      <c r="AE30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>2016</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -3853,8 +4261,32 @@
       <c r="AD31" s="5">
         <v>2</v>
       </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -3945,8 +4377,32 @@
       <c r="AD32" s="5">
         <v>2</v>
       </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
@@ -4036,6 +4492,30 @@
       </c>
       <c r="AD33" s="5">
         <v>4</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
